--- a/data/cwc2023.group_stage.odi_list.xlsx
+++ b/data/cwc2023.group_stage.odi_list.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\cwc2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E673EF10-76D7-4277-BB84-329FC40EDFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64334E21-6404-4B41-8280-B97877B5AF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12495" yWindow="-15405" windowWidth="16305" windowHeight="12660"/>
+    <workbookView xWindow="3720" yWindow="-15345" windowWidth="24540" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cwc2023.group_stage.odi_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -256,7 +269,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -752,11 +765,11 @@
     <xf numFmtId="22" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1111,24 +1124,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M11"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5"/>
-    <col min="2" max="2" width="22.21875" style="5" customWidth="1"/>
-    <col min="3" max="10" width="8.88671875" style="5"/>
-    <col min="11" max="11" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1188,16 +1198,16 @@
       <c r="J2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>45204</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="1" t="str">
-        <f>""""&amp;A2&amp;""":  {[TEAM."&amp;E2&amp;"]: "&amp;H2&amp;", [TEAM."&amp;F2&amp;"]: "&amp;I2&amp;"},  //  "&amp;J2&amp;"-"&amp;K2</f>
-        <v>"ODI 01":  {[TEAM.ENG]: 1.8, [TEAM.NZL]: 2.2},  //  OC-45204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>""""&amp;A2&amp;""":  {[TEAM."&amp;E2&amp;".id]: "&amp;H2&amp;", [TEAM."&amp;F2&amp;".id]: "&amp;I2&amp;"},  //  "&amp;J2&amp;"-"&amp;K2</f>
+        <v>"ODI 01":  {[TEAM.ENG.id]: 1.8, [TEAM.NZL.id]: 2.2},  //  OC-45204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1225,1016 +1235,1064 @@
       <c r="J3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>45205</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="1" t="str">
-        <f t="shared" ref="M3:M11" si="0">""""&amp;A3&amp;""":  {[TEAM."&amp;E3&amp;"]: "&amp;H3&amp;", [TEAM."&amp;F3&amp;"]: "&amp;I3&amp;"},  //  "&amp;J3&amp;"-"&amp;K3</f>
-        <v>"ODI 02":  {[TEAM.PAK]: 1.04, [TEAM.NLD]: 11.05},  //  OC-45205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+        <f t="shared" ref="M3:M11" si="0">""""&amp;A3&amp;""":  {[TEAM."&amp;E3&amp;".id]: "&amp;H3&amp;", [TEAM."&amp;F3&amp;".id]: "&amp;I3&amp;"},  //  "&amp;J3&amp;"-"&amp;K3</f>
+        <v>"ODI 02":  {[TEAM.PAK.id]: 1.04, [TEAM.NLD.id]: 11.05},  //  OC-45205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45206.4375</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.4375</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
         <v>2.5</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4">
         <v>1.8</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="8" t="str">
-        <f t="shared" ref="K3:K11" ca="1" si="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
+      <c r="K4" s="7" t="str">
+        <f t="shared" ref="K4:K11" ca="1" si="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
         <v>2023-10-07</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="5" t="str">
+      <c r="L4" s="7"/>
+      <c r="M4" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 03":  {[TEAM.AFG]: 2.5, [TEAM.BGD]: 1.8},  //  OC-2023-10-07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+        <v>"ODI 03":  {[TEAM.AFG.id]: 2.5, [TEAM.BGD.id]: 1.8},  //  OC-2023-10-07</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45206.583333333336</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
         <v>1.44</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <v>3.1</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="8" t="str">
+      <c r="K5" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>2023-10-07</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="5" t="str">
+      <c r="L5" s="7"/>
+      <c r="M5" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 04":  {[TEAM.ZAF]: 1.44, [TEAM.LKA]: 3.1},  //  OC-2023-10-07</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+        <v>"ODI 04":  {[TEAM.ZAF.id]: 1.44, [TEAM.LKA.id]: 3.1},  //  OC-2023-10-07</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45207.583333333336</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>2.37</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>1.67</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="8" t="str">
+      <c r="K6" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>2023-10-07</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="5" t="str">
+      <c r="L6" s="7"/>
+      <c r="M6" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 05":  {[TEAM.AUS]: 2.37, [TEAM.IND]: 1.67},  //  OC-2023-10-07</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+        <v>"ODI 05":  {[TEAM.AUS.id]: 2.37, [TEAM.IND.id]: 1.67},  //  OC-2023-10-07</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45208.583333333336</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7">
         <v>1.06</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <v>11</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="8" t="str">
+      <c r="K7" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>2023-10-07</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="5" t="str">
+      <c r="L7" s="7"/>
+      <c r="M7" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 06":  {[TEAM.NZL]: 1.06, [TEAM.NLD]: 11},  //  OC-2023-10-07</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+        <v>"ODI 06":  {[TEAM.NZL.id]: 1.06, [TEAM.NLD.id]: 11},  //  OC-2023-10-07</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45209.4375</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.4375</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8">
         <v>4.8</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8">
         <v>1.18</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="8" t="str">
+      <c r="K8" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>2023-10-07</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="5" t="str">
+      <c r="L8" s="7"/>
+      <c r="M8" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 07":  {[TEAM.BGD]: 4.8, [TEAM.ENG]: 1.18},  //  OP-2023-10-07</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+        <v>"ODI 07":  {[TEAM.BGD.id]: 4.8, [TEAM.ENG.id]: 1.18},  //  OP-2023-10-07</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45209.583333333336</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9">
         <v>1.46</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9">
         <v>2.73</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="8" t="str">
+      <c r="K9" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>2023-10-07</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="5" t="str">
+      <c r="L9" s="7"/>
+      <c r="M9" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 08":  {[TEAM.PAK]: 1.46, [TEAM.LKA]: 2.73},  //  OP-2023-10-07</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+        <v>"ODI 08":  {[TEAM.PAK.id]: 1.46, [TEAM.LKA.id]: 2.73},  //  OP-2023-10-07</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45210.583333333336</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <v>1.17</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="8" t="str">
+      <c r="K10" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>2023-10-07</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="5" t="str">
+      <c r="L10" s="7"/>
+      <c r="M10" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 09":  {[TEAM.AFG]: 5.1, [TEAM.IND]: 1.17},  //  OP-2023-10-07</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+        <v>"ODI 09":  {[TEAM.AFG.id]: 5.1, [TEAM.IND.id]: 1.17},  //  OP-2023-10-07</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45212.583333333336</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <v>1.63</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <v>2.29</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="8" t="str">
+      <c r="K11" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>2023-10-07</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="5" t="str">
+      <c r="L11" s="7"/>
+      <c r="M11" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 10":  {[TEAM.AUS]: 1.63, [TEAM.ZAF]: 2.29},  //  OP-2023-10-07</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+        <v>"ODI 10":  {[TEAM.AUS.id]: 1.63, [TEAM.ZAF.id]: 2.29},  //  OP-2023-10-07</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45213.583333333336</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45213.583333333336</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45214.583333333336</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45215.583333333336</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45216.583333333336</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45217.583333333336</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45218.583333333336</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D18" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45219.583333333336</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45220.4375</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>0.4375</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>45220.583333333336</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>45221.583333333336</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>45222.583333333336</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D23" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>45223.583333333336</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D24" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>45224.583333333336</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D25" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>45225.583333333336</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D26" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>45226.583333333336</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D27" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>45227.4375</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>0.4375</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>45227.583333333336</v>
       </c>
-      <c r="C29" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D29" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>45228.583333333336</v>
       </c>
-      <c r="C30" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D30" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>45229.583333333336</v>
       </c>
-      <c r="C31" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D31" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>45230.583333333336</v>
       </c>
-      <c r="C32" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D32" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>45231.583333333336</v>
       </c>
-      <c r="C33" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D33" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>45232.583333333336</v>
       </c>
-      <c r="C34" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D34" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>45233.583333333336</v>
       </c>
-      <c r="C35" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D35" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>45234.4375</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>0.4375</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>45234.583333333336</v>
       </c>
-      <c r="C37" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D37" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>45235.583333333336</v>
       </c>
-      <c r="C38" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D38" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>45236.583333333336</v>
       </c>
-      <c r="C39" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D39" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>45237.583333333336</v>
       </c>
-      <c r="C40" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D40" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>45238.583333333336</v>
       </c>
-      <c r="C41" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D41" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>45239.583333333336</v>
       </c>
-      <c r="C42" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D42" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>45240.583333333336</v>
       </c>
-      <c r="C43" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D43" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>45241.4375</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>0.4375</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>45241.583333333336</v>
       </c>
-      <c r="C45" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D45" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>45242.583333333336</v>
       </c>
-      <c r="C46" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D46" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/cwc2023.group_stage.odi_list.xlsx
+++ b/data/cwc2023.group_stage.odi_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\cwc2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64334E21-6404-4B41-8280-B97877B5AF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D619E5-D47A-4CF9-9984-995DF18241AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="-15345" windowWidth="24540" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="M2" sqref="M2:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,7 +1138,7 @@
     <col min="12" max="12" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1203,11 +1203,11 @@
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="1" t="str">
-        <f>""""&amp;A2&amp;""":  {[TEAM."&amp;E2&amp;".id]: "&amp;H2&amp;", [TEAM."&amp;F2&amp;".id]: "&amp;I2&amp;"},  //  "&amp;J2&amp;"-"&amp;K2</f>
-        <v>"ODI 01":  {[TEAM.ENG.id]: 1.8, [TEAM.NZL.id]: 2.2},  //  OC-45204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f>""""&amp;A2&amp;""":  {[TEAM."&amp;E2&amp;".id]: "&amp;H2&amp;", [TEAM."&amp;F2&amp;".id]: "&amp;I2&amp;"},  // "&amp;J2&amp;"-"&amp;K2</f>
+        <v>"ODI 01":  {[TEAM.ENG.id]: 1.8, [TEAM.NZL.id]: 2.2},  // OC-45204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="1" t="str">
-        <f t="shared" ref="M3:M11" si="0">""""&amp;A3&amp;""":  {[TEAM."&amp;E3&amp;".id]: "&amp;H3&amp;", [TEAM."&amp;F3&amp;".id]: "&amp;I3&amp;"},  //  "&amp;J3&amp;"-"&amp;K3</f>
-        <v>"ODI 02":  {[TEAM.PAK.id]: 1.04, [TEAM.NLD.id]: 11.05},  //  OC-45205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" ref="M3:M11" si="0">""""&amp;A3&amp;""":  {[TEAM."&amp;E3&amp;".id]: "&amp;H3&amp;", [TEAM."&amp;F3&amp;".id]: "&amp;I3&amp;"},  // "&amp;J3&amp;"-"&amp;K3</f>
+        <v>"ODI 02":  {[TEAM.PAK.id]: 1.04, [TEAM.NLD.id]: 11.05},  // OC-45205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1279,16 +1279,10 @@
       <c r="L4" s="7"/>
       <c r="M4" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 03":  {[TEAM.AFG.id]: 2.5, [TEAM.BGD.id]: 1.8},  //  OC-2023-10-07</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>"ODI 03":  {[TEAM.AFG.id]: 2.5, [TEAM.BGD.id]: 1.8},  // OC-2023-10-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1323,16 +1317,10 @@
       <c r="L5" s="7"/>
       <c r="M5" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 04":  {[TEAM.ZAF.id]: 1.44, [TEAM.LKA.id]: 3.1},  //  OC-2023-10-07</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>"ODI 04":  {[TEAM.ZAF.id]: 1.44, [TEAM.LKA.id]: 3.1},  // OC-2023-10-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1367,16 +1355,10 @@
       <c r="L6" s="7"/>
       <c r="M6" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 05":  {[TEAM.AUS.id]: 2.37, [TEAM.IND.id]: 1.67},  //  OC-2023-10-07</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>"ODI 05":  {[TEAM.AUS.id]: 2.37, [TEAM.IND.id]: 1.67},  // OC-2023-10-07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1411,16 +1393,10 @@
       <c r="L7" s="7"/>
       <c r="M7" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 06":  {[TEAM.NZL.id]: 1.06, [TEAM.NLD.id]: 11},  //  OC-2023-10-07</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>"ODI 06":  {[TEAM.NZL.id]: 1.06, [TEAM.NLD.id]: 11},  // OC-2023-10-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1455,16 +1431,10 @@
       <c r="L8" s="7"/>
       <c r="M8" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 07":  {[TEAM.BGD.id]: 4.8, [TEAM.ENG.id]: 1.18},  //  OP-2023-10-07</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>"ODI 07":  {[TEAM.BGD.id]: 4.8, [TEAM.ENG.id]: 1.18},  // OP-2023-10-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1499,16 +1469,10 @@
       <c r="L9" s="7"/>
       <c r="M9" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 08":  {[TEAM.PAK.id]: 1.46, [TEAM.LKA.id]: 2.73},  //  OP-2023-10-07</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>"ODI 08":  {[TEAM.PAK.id]: 1.46, [TEAM.LKA.id]: 2.73},  // OP-2023-10-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1543,16 +1507,10 @@
       <c r="L10" s="7"/>
       <c r="M10" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 09":  {[TEAM.AFG.id]: 5.1, [TEAM.IND.id]: 1.17},  //  OP-2023-10-07</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>"ODI 09":  {[TEAM.AFG.id]: 5.1, [TEAM.IND.id]: 1.17},  // OP-2023-10-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1587,16 +1545,10 @@
       <c r="L11" s="7"/>
       <c r="M11" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"ODI 10":  {[TEAM.AUS.id]: 1.63, [TEAM.ZAF.id]: 2.29},  //  OP-2023-10-07</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>"ODI 10":  {[TEAM.AUS.id]: 1.63, [TEAM.ZAF.id]: 2.29},  // OP-2023-10-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1616,7 +1568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1636,7 +1588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1656,7 +1608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1676,7 +1628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
